--- a/TRICKS.xlsx
+++ b/TRICKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DSAandCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B1901D-D380-4999-A422-C5A73768F3A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1175DD3-4290-4414-90ED-35F0EDFCC3B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{6A65F2B1-4009-409D-BEA6-937087280822}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>2D bit precomputation + binary search can help you find some subsets</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t>https://codeforces.com/contest/1977/submission/262816420</t>
+  </si>
+  <si>
+    <t>There are  n*(n+1)/2 subarrays in an array , index I contributes (i+1)(n-i)</t>
+  </si>
+  <si>
+    <t>Answer Construction from dp table can be doe with following the options</t>
+  </si>
+  <si>
+    <t>Submission #54310532 - Educational DP Contest (atcoder.jp)</t>
+  </si>
+  <si>
+    <t>Instead of using and id + mp for connected conponents size used dsu of size n*m</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1985/submission/265701054</t>
   </si>
 </sst>
 </file>
@@ -411,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132E388B-74E4-40D8-A51E-EA9807F24DA6}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,6 +491,36 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:T1"/>
@@ -484,6 +529,8 @@
     <hyperlink ref="J2" r:id="rId1" display="https://codeforces.com/contest/1878/submission/258826787" xr:uid="{C0C2AD2D-CFA8-40E4-B5D8-48DF5F36BFD0}"/>
     <hyperlink ref="J3" r:id="rId2" display="https://codeforces.com/contest/1486/submission/262634602" xr:uid="{0F040B59-CDEB-4452-9905-939561E644AA}"/>
     <hyperlink ref="J4" r:id="rId3" xr:uid="{55FB97C6-622F-4A03-8EE9-377A36547219}"/>
+    <hyperlink ref="J6" r:id="rId4" display="https://atcoder.jp/contests/dp/submissions/54310532" xr:uid="{3D555615-B16B-4056-8147-982B8AE2AA54}"/>
+    <hyperlink ref="K7" r:id="rId5" xr:uid="{91716A72-5B6E-4BE4-8E59-2619D4279B03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TRICKS.xlsx
+++ b/TRICKS.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DSAandCP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aspire\Documents\GitHub\DSAandCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1175DD3-4290-4414-90ED-35F0EDFCC3B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C55927-1704-44DC-838C-B534F39CA72E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{6A65F2B1-4009-409D-BEA6-937087280822}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6948" xr2:uid="{6A65F2B1-4009-409D-BEA6-937087280822}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>2D bit precomputation + binary search can help you find some subsets</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>https://codeforces.com/contest/1985/submission/265701054</t>
+  </si>
+  <si>
+    <t>use of ncr with modulo inverse</t>
+  </si>
+  <si>
+    <t>Submission #275027341 - Codeforces</t>
+  </si>
+  <si>
+    <t>Submission #272665063 - Codeforces</t>
+  </si>
+  <si>
+    <t>gcd( lcm(a,b) , lcm(a,c) ) = lcm( a , gcd(b,c) )</t>
   </si>
 </sst>
 </file>
@@ -426,15 +438,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132E388B-74E4-40D8-A51E-EA9807F24DA6}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -458,7 +470,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -469,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -480,7 +492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -491,7 +503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -499,7 +511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -510,7 +522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -519,6 +531,28 @@
       </c>
       <c r="K7" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -531,6 +565,8 @@
     <hyperlink ref="J4" r:id="rId3" xr:uid="{55FB97C6-622F-4A03-8EE9-377A36547219}"/>
     <hyperlink ref="J6" r:id="rId4" display="https://atcoder.jp/contests/dp/submissions/54310532" xr:uid="{3D555615-B16B-4056-8147-982B8AE2AA54}"/>
     <hyperlink ref="K7" r:id="rId5" xr:uid="{91716A72-5B6E-4BE4-8E59-2619D4279B03}"/>
+    <hyperlink ref="J9" r:id="rId6" display="https://codeforces.com/contest/1999/submission/275027341" xr:uid="{263D5C69-8B22-446A-B075-98223AC042DB}"/>
+    <hyperlink ref="J8" r:id="rId7" display="https://codeforces.com/contest/1349/submission/272665063" xr:uid="{85746872-EF1F-42E5-A3A4-8D6E760F59F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TRICKS.xlsx
+++ b/TRICKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aspire\Documents\GitHub\DSAandCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C55927-1704-44DC-838C-B534F39CA72E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23593BE4-AF8F-47E5-B37A-65682C48AC5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6948" xr2:uid="{6A65F2B1-4009-409D-BEA6-937087280822}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>2D bit precomputation + binary search can help you find some subsets</t>
   </si>
@@ -73,13 +73,25 @@
   </si>
   <si>
     <t>gcd( lcm(a,b) , lcm(a,c) ) = lcm( a , gcd(b,c) )</t>
+  </si>
+  <si>
+    <t>Meet in the middle if 2^n is very large work on 2^(n/2)</t>
+  </si>
+  <si>
+    <t>leetcode 2035  https://cses.fi/problemset/result/10228278/</t>
+  </si>
+  <si>
+    <t>you can use bitmask when you need to keep track of counts</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-longest-substring-containing-vowels-in-even-counts/submissions/1391107911?envType=daily-question&amp;envId=2024-09-15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +106,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,12 +140,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -438,37 +463,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132E388B-74E4-40D8-A51E-EA9807F24DA6}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -553,6 +578,28 @@
       </c>
       <c r="J9" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -569,5 +616,6 @@
     <hyperlink ref="J8" r:id="rId7" display="https://codeforces.com/contest/1349/submission/272665063" xr:uid="{85746872-EF1F-42E5-A3A4-8D6E760F59F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/TRICKS.xlsx
+++ b/TRICKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aspire\Documents\GitHub\DSAandCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23593BE4-AF8F-47E5-B37A-65682C48AC5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1888E6C8-79AB-4241-AA30-3D1D363479C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6948" xr2:uid="{6A65F2B1-4009-409D-BEA6-937087280822}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>2D bit precomputation + binary search can help you find some subsets</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/find-the-longest-substring-containing-vowels-in-even-counts/submissions/1391107911?envType=daily-question&amp;envId=2024-09-15</t>
+  </si>
+  <si>
+    <t>Submission #281444606 - Codeforces</t>
+  </si>
+  <si>
+    <t>if you have have to calculate nci for 1&lt;i&lt;n use multiplication theorem +1</t>
+  </si>
+  <si>
+    <t>(1111 -&gt; 1000-1)</t>
   </si>
 </sst>
 </file>
@@ -144,10 +153,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -463,37 +472,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132E388B-74E4-40D8-A51E-EA9807F24DA6}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -527,6 +536,9 @@
       <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="P4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -598,8 +610,19 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -614,8 +637,9 @@
     <hyperlink ref="K7" r:id="rId5" xr:uid="{91716A72-5B6E-4BE4-8E59-2619D4279B03}"/>
     <hyperlink ref="J9" r:id="rId6" display="https://codeforces.com/contest/1999/submission/275027341" xr:uid="{263D5C69-8B22-446A-B075-98223AC042DB}"/>
     <hyperlink ref="J8" r:id="rId7" display="https://codeforces.com/contest/1349/submission/272665063" xr:uid="{85746872-EF1F-42E5-A3A4-8D6E760F59F3}"/>
+    <hyperlink ref="J12" r:id="rId8" display="https://codeforces.com/contest/1084/submission/281444606" xr:uid="{06E0B1EC-C650-4996-85B3-5007648D3064}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>